--- a/tables/TableSX_wave_height_scenarios.xlsx
+++ b/tables/TableSX_wave_height_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7766B574-AFD0-2C4E-A60E-751E8289CDC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52A2669-AA82-C74D-9FC9-BDDA1676F01F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="8700" windowWidth="28040" windowHeight="17440" xr2:uid="{CB49EA83-4C08-524B-A8CA-96CC580052E7}"/>
+    <workbookView xWindow="14660" yWindow="8700" windowWidth="28040" windowHeight="17440" xr2:uid="{CB49EA83-4C08-524B-A8CA-96CC580052E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>ssp126</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Wave height scenario</t>
   </si>
   <si>
-    <t>SSP scenario</t>
-  </si>
-  <si>
     <t>SSP1-2.6</t>
   </si>
   <si>
@@ -69,88 +66,64 @@
     <t>Details</t>
   </si>
   <si>
+    <t>Significant wave height = is defined as the average wave height, from trough to crest, of the highest one-third of the waves</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Hs_glob_FIO_FIO-ESM-2-0_ssp126_r1i1p1f1_mon_201501-210012.nc</t>
+  </si>
+  <si>
+    <t>Hs_glob_FIO_FIO-ESM-2-0_ssp245_r1i1p1f1_mon_201501-210012.nc</t>
+  </si>
+  <si>
+    <t>Hs_glob_FIO_FIO-ESM-2-0_ssp585_r1i1p1f1_mon_201501-210012.nc</t>
+  </si>
+  <si>
     <r>
-      <t>he high end of the range of future forcing pathways, in which the radiative forcing reaches 8.5 W m</t>
+      <t>The low end of the range of future forcing pathways, in which the radiative forcing reaches 2.6 W/m</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FF222222"/>
-        <rFont val="Helvetica Neue"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>−2</t>
+      <t>2 by 2100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The medium part of the range of future forcing pathways, in which the radiative forcing reaches 4.5 W/m</t>
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
+        <sz val="11"/>
         <color rgb="FF222222"/>
-        <rFont val="Helvetica Neue"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t> by 2100</t>
+      <t>2 by 2100</t>
     </r>
   </si>
   <si>
     <r>
-      <t>The medium part of the range of future forcing pathways, in which the radiative forcing reaches 4.5 W m</t>
+      <t>he high end of the range of future forcing pathways, in which the radiative forcing reaches 8.5 W/m</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FF222222"/>
-        <rFont val="Helvetica Neue"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>−2</t>
+      <t>2 by 2100</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t> by 2100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The low end of the range of future forcing pathways, in which the radiative forcing reaches 2.6 W m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>−2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t> by 2100</t>
-    </r>
-  </si>
-  <si>
-    <t>Significant wave height = is defined as the average wave height, from trough to crest, of the highest one-third of the waves</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Hs_glob_FIO_FIO-ESM-2-0_ssp126_r1i1p1f1_mon_201501-210012.nc</t>
-  </si>
-  <si>
-    <t>Hs_glob_FIO_FIO-ESM-2-0_ssp245_r1i1p1f1_mon_201501-210012.nc</t>
-  </si>
-  <si>
-    <t>Hs_glob_FIO_FIO-ESM-2-0_ssp585_r1i1p1f1_mon_201501-210012.nc</t>
   </si>
 </sst>
 </file>
@@ -174,16 +147,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF222222"/>
-      <name val="Helvetica Neue"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -202,13 +177,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,35 +514,36 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -562,16 +551,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -579,16 +568,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -596,16 +585,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -613,21 +602,22 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>